--- a/Code/Results/Cases/Case_5_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636061762082932</v>
+        <v>1.470157689643088</v>
       </c>
       <c r="C2">
-        <v>0.792762075096249</v>
+        <v>0.2339133357980074</v>
       </c>
       <c r="D2">
-        <v>0.07196486469274532</v>
+        <v>0.1075226812809156</v>
       </c>
       <c r="E2">
-        <v>0.03501750847528839</v>
+        <v>0.05439836397513442</v>
       </c>
       <c r="F2">
-        <v>2.605674773320487</v>
+        <v>2.312878378896855</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.58804408211239</v>
+        <v>1.736421287184115</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1801725634199158</v>
+        <v>0.2243747179933493</v>
       </c>
       <c r="M2">
-        <v>0.4518392057320284</v>
+        <v>0.3159931720354976</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279287201464399</v>
+        <v>1.386189995712527</v>
       </c>
       <c r="C3">
-        <v>0.6832900186262236</v>
+        <v>0.2037510629328096</v>
       </c>
       <c r="D3">
-        <v>0.07207703343835092</v>
+        <v>0.1076720869938619</v>
       </c>
       <c r="E3">
-        <v>0.0337999798657922</v>
+        <v>0.05394962065763487</v>
       </c>
       <c r="F3">
-        <v>2.355887278132371</v>
+        <v>2.259330592931931</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.473965314596526</v>
+        <v>1.714308406271002</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1632222267547334</v>
+        <v>0.2214141773817815</v>
       </c>
       <c r="M3">
-        <v>0.3931543847428216</v>
+        <v>0.3028853873112425</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063767203990494</v>
+        <v>1.335603170010813</v>
       </c>
       <c r="C4">
-        <v>0.6170774378127248</v>
+        <v>0.1852597149878932</v>
       </c>
       <c r="D4">
-        <v>0.07224804380632932</v>
+        <v>0.1077912464955233</v>
       </c>
       <c r="E4">
-        <v>0.03305960446273204</v>
+        <v>0.05366683351487023</v>
       </c>
       <c r="F4">
-        <v>2.207790029026839</v>
+        <v>2.227720188075963</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.407015086722311</v>
+        <v>1.701542869023456</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1531193148512244</v>
+        <v>0.2197126688251032</v>
       </c>
       <c r="M4">
-        <v>0.3577903533306923</v>
+        <v>0.2950430642277553</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.976708922121247</v>
+        <v>1.31523181244512</v>
       </c>
       <c r="C5">
-        <v>0.5903048012171439</v>
+        <v>0.1777308649236033</v>
       </c>
       <c r="D5">
-        <v>0.07234145392255797</v>
+        <v>0.1078466504844968</v>
       </c>
       <c r="E5">
-        <v>0.03275908297010055</v>
+        <v>0.05354975700494347</v>
       </c>
       <c r="F5">
-        <v>2.148626933591501</v>
+        <v>2.215155243583993</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.380436476850107</v>
+        <v>1.696543617103472</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1490716279822806</v>
+        <v>0.2190484816087093</v>
       </c>
       <c r="M5">
-        <v>0.3435263435822407</v>
+        <v>0.2918989163574182</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.962295961733957</v>
+        <v>1.311863833675943</v>
       </c>
       <c r="C6">
-        <v>0.5858707008643478</v>
+        <v>0.1764810812518363</v>
       </c>
       <c r="D6">
-        <v>0.07235834342262137</v>
+        <v>0.1078562622551402</v>
       </c>
       <c r="E6">
-        <v>0.03270923642568135</v>
+        <v>0.05353020510576734</v>
       </c>
       <c r="F6">
-        <v>2.13887086329774</v>
+        <v>2.213087895109012</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.376063602352474</v>
+        <v>1.695725705140845</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1484034989427059</v>
+        <v>0.218939955574605</v>
       </c>
       <c r="M6">
-        <v>0.3411661215777286</v>
+        <v>0.2913799500532051</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.06259015053422</v>
+        <v>1.335327450952946</v>
       </c>
       <c r="C7">
-        <v>0.6167155781231486</v>
+        <v>0.1851581526719315</v>
       </c>
       <c r="D7">
-        <v>0.0722492099786507</v>
+        <v>0.1077919660431519</v>
       </c>
       <c r="E7">
-        <v>0.03305554748925932</v>
+        <v>0.05366526204128963</v>
       </c>
       <c r="F7">
-        <v>2.206987499908877</v>
+        <v>2.227549454237163</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.406653880477464</v>
+        <v>1.701474627992212</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1530644547822604</v>
+        <v>0.2197035932298519</v>
       </c>
       <c r="M7">
-        <v>0.3575974146698186</v>
+        <v>0.2950004521198935</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512233557285356</v>
+        <v>1.441003940586995</v>
       </c>
       <c r="C8">
-        <v>0.7547806993786708</v>
+        <v>0.2235071036622855</v>
       </c>
       <c r="D8">
-        <v>0.07198110195595575</v>
+        <v>0.1075684741528349</v>
       </c>
       <c r="E8">
-        <v>0.03459581609129891</v>
+        <v>0.05424513512342877</v>
       </c>
       <c r="F8">
-        <v>2.518366457286191</v>
+        <v>2.294150467946025</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.548020833815201</v>
+        <v>1.72862744622384</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.17426027048473</v>
+        <v>0.2233297603923319</v>
       </c>
       <c r="M8">
-        <v>0.4314526237029384</v>
+        <v>0.3114307952182003</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428281010849844</v>
+        <v>1.655972928619065</v>
       </c>
       <c r="C9">
-        <v>1.035662835678806</v>
+        <v>0.2989665458969739</v>
       </c>
       <c r="D9">
-        <v>0.07236500823781711</v>
+        <v>0.1073500978287072</v>
       </c>
       <c r="E9">
-        <v>0.03770546989614409</v>
+        <v>0.05532533564858078</v>
       </c>
       <c r="F9">
-        <v>3.17777201457514</v>
+        <v>2.434931384048951</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.853510568971288</v>
+        <v>1.788380427314422</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2186082783556316</v>
+        <v>0.2313660915370974</v>
       </c>
       <c r="M9">
-        <v>0.582650366850622</v>
+        <v>0.3452920438299572</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132033608013046</v>
+        <v>1.818709298254703</v>
       </c>
       <c r="C10">
-        <v>1.251659605750717</v>
+        <v>0.3546131732741742</v>
       </c>
       <c r="D10">
-        <v>0.07335954212560125</v>
+        <v>0.1073269170643982</v>
       </c>
       <c r="E10">
-        <v>0.04009683345943671</v>
+        <v>0.05608520854000876</v>
       </c>
       <c r="F10">
-        <v>3.702933076898262</v>
+        <v>2.544738275459338</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.101033367889514</v>
+        <v>1.836342906360784</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2534623581403679</v>
+        <v>0.2378395095869905</v>
       </c>
       <c r="M10">
-        <v>0.6992967761254363</v>
+        <v>0.3711845248298928</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.46143544912718</v>
+        <v>1.893803776385482</v>
       </c>
       <c r="C11">
-        <v>1.352923995148217</v>
+        <v>0.3799843339752442</v>
       </c>
       <c r="D11">
-        <v>0.07400870995829933</v>
+        <v>0.1073468735177414</v>
       </c>
       <c r="E11">
-        <v>0.0412221820262193</v>
+        <v>0.05642377703129053</v>
       </c>
       <c r="F11">
-        <v>3.953538332790401</v>
+        <v>2.596114556266713</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.220174289305049</v>
+        <v>1.859065365430084</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.269960949193873</v>
+        <v>0.2409091785256123</v>
       </c>
       <c r="M11">
-        <v>0.7540088045298106</v>
+        <v>0.3831873330131543</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.58775398013546</v>
+        <v>1.922394475568353</v>
       </c>
       <c r="C12">
-        <v>1.39179186466589</v>
+        <v>0.389600772480037</v>
       </c>
       <c r="D12">
-        <v>0.0742870104187503</v>
+        <v>0.1073588733534763</v>
       </c>
       <c r="E12">
-        <v>0.04165516312588835</v>
+        <v>0.05655097919170871</v>
       </c>
       <c r="F12">
-        <v>4.050398380640928</v>
+        <v>2.615777120314391</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.266379273813783</v>
+        <v>1.867801379878344</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2763155068681158</v>
+        <v>0.2420896178971788</v>
       </c>
       <c r="M12">
-        <v>0.7750066700896951</v>
+        <v>0.387764936968253</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.560474334087644</v>
+        <v>1.916230090375279</v>
       </c>
       <c r="C13">
-        <v>1.383396229580455</v>
+        <v>0.387529291901501</v>
       </c>
       <c r="D13">
-        <v>0.07422555532985342</v>
+        <v>0.1073560904750295</v>
       </c>
       <c r="E13">
-        <v>0.04156158313962433</v>
+        <v>0.05652362845154268</v>
       </c>
       <c r="F13">
-        <v>4.029445748399922</v>
+        <v>2.611533165379569</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.256377182503925</v>
+        <v>1.865914049695007</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2749419338066446</v>
+        <v>0.241834586550965</v>
       </c>
       <c r="M13">
-        <v>0.7704712255445685</v>
+        <v>0.3867776243353305</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.47179450186286</v>
+        <v>1.8961528575839</v>
       </c>
       <c r="C14">
-        <v>1.35611067415681</v>
+        <v>0.3807753011134309</v>
       </c>
       <c r="D14">
-        <v>0.07403092872939254</v>
+        <v>0.1073477713857116</v>
       </c>
       <c r="E14">
-        <v>0.04125765746389032</v>
+        <v>0.05643426211338554</v>
       </c>
       <c r="F14">
-        <v>3.961466024736296</v>
+        <v>2.597728033850359</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.223952852230738</v>
+        <v>1.859781438224246</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2704815103936795</v>
+        <v>0.2410059324084415</v>
       </c>
       <c r="M14">
-        <v>0.755730442490929</v>
+        <v>0.3835632849215216</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.417689486600466</v>
+        <v>1.883875062757397</v>
       </c>
       <c r="C15">
-        <v>1.339468233047683</v>
+        <v>0.3766394707894278</v>
       </c>
       <c r="D15">
-        <v>0.07391607891001684</v>
+        <v>0.1073432559704486</v>
       </c>
       <c r="E15">
-        <v>0.04107243160578644</v>
+        <v>0.05637939203385578</v>
       </c>
       <c r="F15">
-        <v>3.920090828610597</v>
+        <v>2.589299090884055</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.204238584928049</v>
+        <v>1.856042208314122</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2677637552255305</v>
+        <v>0.2405007068276177</v>
       </c>
       <c r="M15">
-        <v>0.7467390658168824</v>
+        <v>0.3815986337473092</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.110713300308873</v>
+        <v>1.813823203404638</v>
       </c>
       <c r="C16">
-        <v>1.245109540328713</v>
+        <v>0.3529563195008905</v>
       </c>
       <c r="D16">
-        <v>0.07332141943766857</v>
+        <v>0.1073262314680719</v>
       </c>
       <c r="E16">
-        <v>0.04002416172162437</v>
+        <v>0.05606294065320139</v>
       </c>
       <c r="F16">
-        <v>3.686813866141193</v>
+        <v>2.541409604931943</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.093391059271738</v>
+        <v>1.834876261190274</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2523982669802081</v>
+        <v>0.2376414178855981</v>
       </c>
       <c r="M16">
-        <v>0.6957578941776035</v>
+        <v>0.3704046380943211</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.924931925881424</v>
+        <v>1.77112204036564</v>
       </c>
       <c r="C17">
-        <v>1.188052785303228</v>
+        <v>0.338442626053677</v>
       </c>
       <c r="D17">
-        <v>0.07300978448044759</v>
+        <v>0.1073236398622441</v>
       </c>
       <c r="E17">
-        <v>0.03939163889374431</v>
+        <v>0.0558669995827783</v>
       </c>
       <c r="F17">
-        <v>3.546890017266293</v>
+        <v>2.512397686734687</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.027164187906294</v>
+        <v>1.822124263937155</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.243146436585107</v>
+        <v>0.2359193666987096</v>
       </c>
       <c r="M17">
-        <v>0.6649333273118998</v>
+        <v>0.3635950180075724</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.818930229963712</v>
+        <v>1.74666163515343</v>
       </c>
       <c r="C18">
-        <v>1.155512185106772</v>
+        <v>0.3301000775852572</v>
       </c>
       <c r="D18">
-        <v>0.07284877387670718</v>
+        <v>0.1073250167745172</v>
       </c>
       <c r="E18">
-        <v>0.0390312589917432</v>
+        <v>0.05575363013559809</v>
       </c>
       <c r="F18">
-        <v>3.467492648440384</v>
+        <v>2.49584472770843</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.989677952039273</v>
+        <v>1.814874658575263</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2378846089051478</v>
+        <v>0.234940638555571</v>
       </c>
       <c r="M18">
-        <v>0.6473561915813661</v>
+        <v>0.3596993961436397</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.783179664475142</v>
+        <v>1.73839693997337</v>
       </c>
       <c r="C19">
-        <v>1.144539561118563</v>
+        <v>0.3272763307396644</v>
       </c>
       <c r="D19">
-        <v>0.07279727298870142</v>
+        <v>0.1073259737535679</v>
       </c>
       <c r="E19">
-        <v>0.03890978972171855</v>
+        <v>0.05571512978417115</v>
       </c>
       <c r="F19">
-        <v>3.440788254500319</v>
+        <v>2.490263102934847</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.977085605272634</v>
+        <v>1.81243462096873</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2361128703864921</v>
+        <v>0.2346112741771407</v>
       </c>
       <c r="M19">
-        <v>0.641429841343033</v>
+        <v>0.3583840231585853</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944618503895128</v>
+        <v>1.775657277879759</v>
       </c>
       <c r="C20">
-        <v>1.194097309877463</v>
+        <v>0.3399870753638083</v>
       </c>
       <c r="D20">
-        <v>0.07304104320448346</v>
+        <v>0.1073236185544957</v>
       </c>
       <c r="E20">
-        <v>0.03945860731779405</v>
+        <v>0.05588792701033363</v>
       </c>
       <c r="F20">
-        <v>3.561671162254243</v>
+        <v>2.515472174854665</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.034150455383426</v>
+        <v>1.823472927132272</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2441250453541244</v>
+        <v>0.2361014654278364</v>
       </c>
       <c r="M20">
-        <v>0.668198599751193</v>
+        <v>0.3643177296442204</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.497796835054771</v>
+        <v>1.902045839092864</v>
       </c>
       <c r="C21">
-        <v>1.364110180949297</v>
+        <v>0.3827588639039732</v>
       </c>
       <c r="D21">
-        <v>0.07408717727786751</v>
+        <v>0.1073500938741532</v>
       </c>
       <c r="E21">
-        <v>0.04134672950742502</v>
+        <v>0.0564605383668404</v>
       </c>
       <c r="F21">
-        <v>3.981377673685159</v>
+        <v>2.601777283543157</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.233445823249724</v>
+        <v>1.861579153598399</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2717886188804357</v>
+        <v>0.241248838566392</v>
       </c>
       <c r="M21">
-        <v>0.7600522100986424</v>
+        <v>0.3845065336347773</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.868690745638787</v>
+        <v>1.985546452005622</v>
       </c>
       <c r="C22">
-        <v>1.47831313006202</v>
+        <v>0.4107650891097023</v>
       </c>
       <c r="D22">
-        <v>0.07496262176841384</v>
+        <v>0.1073933194174685</v>
       </c>
       <c r="E22">
-        <v>0.04262143625278814</v>
+        <v>0.05682891407451773</v>
       </c>
       <c r="F22">
-        <v>4.267271512422667</v>
+        <v>2.659393261895957</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.370128899588565</v>
+        <v>1.887251037944282</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2904996635305821</v>
+        <v>0.2447180242865272</v>
       </c>
       <c r="M22">
-        <v>0.8217380001852561</v>
+        <v>0.3978900228595847</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.669788950975715</v>
+        <v>1.940898085229605</v>
       </c>
       <c r="C23">
-        <v>1.417045120715954</v>
+        <v>0.3958126110863986</v>
       </c>
       <c r="D23">
-        <v>0.07447627402552115</v>
+        <v>0.107367858401112</v>
       </c>
       <c r="E23">
-        <v>0.04193683028327655</v>
+        <v>0.05663283616675585</v>
       </c>
       <c r="F23">
-        <v>4.113521245017097</v>
+        <v>2.628530884024883</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.296535246545375</v>
+        <v>1.87347876468921</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2804501603937126</v>
+        <v>0.2428568177431458</v>
       </c>
       <c r="M23">
-        <v>0.7886480760047547</v>
+        <v>0.3907296590866807</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.935715708302666</v>
+        <v>1.773606619659063</v>
       </c>
       <c r="C24">
-        <v>1.191363770508303</v>
+        <v>0.3392888250024271</v>
       </c>
       <c r="D24">
-        <v>0.0730268549020181</v>
+        <v>0.1073236192625018</v>
       </c>
       <c r="E24">
-        <v>0.03942832082602354</v>
+        <v>0.05587846796509055</v>
       </c>
       <c r="F24">
-        <v>3.554985366790248</v>
+        <v>2.514081805330903</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.030990141814812</v>
+        <v>1.822862942176343</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2436824393098647</v>
+        <v>0.2360191033939429</v>
       </c>
       <c r="M24">
-        <v>0.6667219236910356</v>
+        <v>0.3639909315497292</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.175852890105773</v>
+        <v>1.596981479964484</v>
       </c>
       <c r="C25">
-        <v>0.9582615563291483</v>
+        <v>0.2785201283110439</v>
       </c>
       <c r="D25">
-        <v>0.07214873133592903</v>
+        <v>0.1073853030541727</v>
       </c>
       <c r="E25">
-        <v>0.03684974829596754</v>
+        <v>0.0550391094491296</v>
       </c>
       <c r="F25">
-        <v>2.993111152555429</v>
+        <v>2.395739331198484</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.767280006664194</v>
+        <v>1.771509277352607</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2062577417690505</v>
+        <v>0.2290924722067729</v>
       </c>
       <c r="M25">
-        <v>0.540904602158399</v>
+        <v>0.3359545370881989</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.470157689643088</v>
+        <v>2.636061762082932</v>
       </c>
       <c r="C2">
-        <v>0.2339133357980074</v>
+        <v>0.7927620750959932</v>
       </c>
       <c r="D2">
-        <v>0.1075226812809156</v>
+        <v>0.07196486469286967</v>
       </c>
       <c r="E2">
-        <v>0.05439836397513442</v>
+        <v>0.03501750847534257</v>
       </c>
       <c r="F2">
-        <v>2.312878378896855</v>
+        <v>2.605674773320473</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.736421287184115</v>
+        <v>1.588044082112418</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2243747179933493</v>
+        <v>0.1801725634199016</v>
       </c>
       <c r="M2">
-        <v>0.3159931720354976</v>
+        <v>0.4518392057320426</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.386189995712527</v>
+        <v>2.279287201464456</v>
       </c>
       <c r="C3">
-        <v>0.2037510629328096</v>
+        <v>0.6832900186259394</v>
       </c>
       <c r="D3">
-        <v>0.1076720869938619</v>
+        <v>0.07207703343811644</v>
       </c>
       <c r="E3">
-        <v>0.05394962065763487</v>
+        <v>0.03379997986578509</v>
       </c>
       <c r="F3">
-        <v>2.259330592931931</v>
+        <v>2.355887278132371</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.714308406271002</v>
+        <v>1.473965314596512</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2214141773817815</v>
+        <v>0.1632222267546979</v>
       </c>
       <c r="M3">
-        <v>0.3028853873112425</v>
+        <v>0.3931543847428287</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.335603170010813</v>
+        <v>2.063767203990494</v>
       </c>
       <c r="C4">
-        <v>0.1852597149878932</v>
+        <v>0.6170774378126112</v>
       </c>
       <c r="D4">
-        <v>0.1077912464955233</v>
+        <v>0.07224804380634353</v>
       </c>
       <c r="E4">
-        <v>0.05366683351487023</v>
+        <v>0.03305960446271605</v>
       </c>
       <c r="F4">
-        <v>2.227720188075963</v>
+        <v>2.207790029026867</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.701542869023456</v>
+        <v>1.407015086722339</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2197126688251032</v>
+        <v>0.1531193148511889</v>
       </c>
       <c r="M4">
-        <v>0.2950430642277553</v>
+        <v>0.357790353330671</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.31523181244512</v>
+        <v>1.976708922121247</v>
       </c>
       <c r="C5">
-        <v>0.1777308649236033</v>
+        <v>0.5903048012171723</v>
       </c>
       <c r="D5">
-        <v>0.1078466504844968</v>
+        <v>0.07234145392243363</v>
       </c>
       <c r="E5">
-        <v>0.05354975700494347</v>
+        <v>0.03275908297012542</v>
       </c>
       <c r="F5">
-        <v>2.215155243583993</v>
+        <v>2.148626933591544</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.696543617103472</v>
+        <v>1.380436476850122</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2190484816087093</v>
+        <v>0.14907162798211</v>
       </c>
       <c r="M5">
-        <v>0.2918989163574182</v>
+        <v>0.3435263435822478</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.311863833675943</v>
+        <v>1.962295961733844</v>
       </c>
       <c r="C6">
-        <v>0.1764810812518363</v>
+        <v>0.5858707008643194</v>
       </c>
       <c r="D6">
-        <v>0.1078562622551402</v>
+        <v>0.07235834342237979</v>
       </c>
       <c r="E6">
-        <v>0.05353020510576734</v>
+        <v>0.03270923642568491</v>
       </c>
       <c r="F6">
-        <v>2.213087895109012</v>
+        <v>2.13887086329774</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.695725705140845</v>
+        <v>1.37606360235246</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.218939955574605</v>
+        <v>0.1484034989427201</v>
       </c>
       <c r="M6">
-        <v>0.2913799500532051</v>
+        <v>0.3411661215777144</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335327450952946</v>
+        <v>2.062590150534334</v>
       </c>
       <c r="C7">
-        <v>0.1851581526719315</v>
+        <v>0.6167155781233191</v>
       </c>
       <c r="D7">
-        <v>0.1077919660431519</v>
+        <v>0.07224920997864359</v>
       </c>
       <c r="E7">
-        <v>0.05366526204128963</v>
+        <v>0.03305554748922823</v>
       </c>
       <c r="F7">
-        <v>2.227549454237163</v>
+        <v>2.206987499908919</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.701474627992212</v>
+        <v>1.406653880477492</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2197035932298519</v>
+        <v>0.1530644547822533</v>
       </c>
       <c r="M7">
-        <v>0.2950004521198935</v>
+        <v>0.3575974146698186</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.441003940586995</v>
+        <v>2.512233557285185</v>
       </c>
       <c r="C8">
-        <v>0.2235071036622855</v>
+        <v>0.7547806993788981</v>
       </c>
       <c r="D8">
-        <v>0.1075684741528349</v>
+        <v>0.07198110195605167</v>
       </c>
       <c r="E8">
-        <v>0.05424513512342877</v>
+        <v>0.03459581609128914</v>
       </c>
       <c r="F8">
-        <v>2.294150467946025</v>
+        <v>2.518366457286234</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.72862744622384</v>
+        <v>1.548020833815215</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2233297603923319</v>
+        <v>0.1742602704846021</v>
       </c>
       <c r="M8">
-        <v>0.3114307952182003</v>
+        <v>0.4314526237029312</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.655972928619065</v>
+        <v>3.428281010849616</v>
       </c>
       <c r="C9">
-        <v>0.2989665458969739</v>
+        <v>1.035662835678721</v>
       </c>
       <c r="D9">
-        <v>0.1073500978287072</v>
+        <v>0.07236500823773895</v>
       </c>
       <c r="E9">
-        <v>0.05532533564858078</v>
+        <v>0.03770546989614676</v>
       </c>
       <c r="F9">
-        <v>2.434931384048951</v>
+        <v>3.177772014575197</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.788380427314422</v>
+        <v>1.853510568971316</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2313660915370974</v>
+        <v>0.2186082783557168</v>
       </c>
       <c r="M9">
-        <v>0.3452920438299572</v>
+        <v>0.5826503668506007</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.818709298254703</v>
+        <v>4.132033608013273</v>
       </c>
       <c r="C10">
-        <v>0.3546131732741742</v>
+        <v>1.251659605751513</v>
       </c>
       <c r="D10">
-        <v>0.1073269170643982</v>
+        <v>0.07335954212547335</v>
       </c>
       <c r="E10">
-        <v>0.05608520854000876</v>
+        <v>0.04009683345943849</v>
       </c>
       <c r="F10">
-        <v>2.544738275459338</v>
+        <v>3.702933076898233</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.836342906360784</v>
+        <v>2.101033367889514</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2378395095869905</v>
+        <v>0.2534623581403679</v>
       </c>
       <c r="M10">
-        <v>0.3711845248298928</v>
+        <v>0.6992967761254292</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.893803776385482</v>
+        <v>4.461435449127066</v>
       </c>
       <c r="C11">
-        <v>0.3799843339752442</v>
+        <v>1.352923995148217</v>
       </c>
       <c r="D11">
-        <v>0.1073468735177414</v>
+        <v>0.07400870995829933</v>
       </c>
       <c r="E11">
-        <v>0.05642377703129053</v>
+        <v>0.04122218202628591</v>
       </c>
       <c r="F11">
-        <v>2.596114556266713</v>
+        <v>3.95353833279043</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.859065365430084</v>
+        <v>2.220174289305078</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2409091785256123</v>
+        <v>0.269960949193873</v>
       </c>
       <c r="M11">
-        <v>0.3831873330131543</v>
+        <v>0.7540088045298106</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.922394475568353</v>
+        <v>4.587753980135631</v>
       </c>
       <c r="C12">
-        <v>0.389600772480037</v>
+        <v>1.391791864666402</v>
       </c>
       <c r="D12">
-        <v>0.1073588733534763</v>
+        <v>0.07428701041859398</v>
       </c>
       <c r="E12">
-        <v>0.05655097919170871</v>
+        <v>0.04165516312594875</v>
       </c>
       <c r="F12">
-        <v>2.615777120314391</v>
+        <v>4.050398380640928</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.867801379878344</v>
+        <v>2.266379273813797</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2420896178971788</v>
+        <v>0.2763155068682295</v>
       </c>
       <c r="M12">
-        <v>0.387764936968253</v>
+        <v>0.775006670089688</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916230090375279</v>
+        <v>4.560474334087814</v>
       </c>
       <c r="C13">
-        <v>0.387529291901501</v>
+        <v>1.383396229580171</v>
       </c>
       <c r="D13">
-        <v>0.1073560904750295</v>
+        <v>0.07422555532931341</v>
       </c>
       <c r="E13">
-        <v>0.05652362845154268</v>
+        <v>0.04156158313960479</v>
       </c>
       <c r="F13">
-        <v>2.611533165379569</v>
+        <v>4.029445748399922</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.865914049695007</v>
+        <v>2.256377182503954</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.241834586550965</v>
+        <v>0.2749419338064456</v>
       </c>
       <c r="M13">
-        <v>0.3867776243353305</v>
+        <v>0.7704712255445827</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8961528575839</v>
+        <v>4.471794501862917</v>
       </c>
       <c r="C14">
-        <v>0.3807753011134309</v>
+        <v>1.356110674157321</v>
       </c>
       <c r="D14">
-        <v>0.1073477713857116</v>
+        <v>0.0740309287294707</v>
       </c>
       <c r="E14">
-        <v>0.05643426211338554</v>
+        <v>0.04125765746391519</v>
       </c>
       <c r="F14">
-        <v>2.597728033850359</v>
+        <v>3.961466024736325</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.859781438224246</v>
+        <v>2.223952852230767</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2410059324084415</v>
+        <v>0.2704815103938358</v>
       </c>
       <c r="M14">
-        <v>0.3835632849215216</v>
+        <v>0.7557304424909361</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.883875062757397</v>
+        <v>4.417689486600636</v>
       </c>
       <c r="C15">
-        <v>0.3766394707894278</v>
+        <v>1.339468233047967</v>
       </c>
       <c r="D15">
-        <v>0.1073432559704486</v>
+        <v>0.073916078910365</v>
       </c>
       <c r="E15">
-        <v>0.05637939203385578</v>
+        <v>0.04107243160575713</v>
       </c>
       <c r="F15">
-        <v>2.589299090884055</v>
+        <v>3.920090828610597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.856042208314122</v>
+        <v>2.204238584928078</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2405007068276177</v>
+        <v>0.2677637552256016</v>
       </c>
       <c r="M15">
-        <v>0.3815986337473092</v>
+        <v>0.7467390658168753</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.813823203404638</v>
+        <v>4.110713300308987</v>
       </c>
       <c r="C16">
-        <v>0.3529563195008905</v>
+        <v>1.245109540328997</v>
       </c>
       <c r="D16">
-        <v>0.1073262314680719</v>
+        <v>0.07332141943727777</v>
       </c>
       <c r="E16">
-        <v>0.05606294065320139</v>
+        <v>0.0400241617216226</v>
       </c>
       <c r="F16">
-        <v>2.541409604931943</v>
+        <v>3.686813866141222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.834876261190274</v>
+        <v>2.093391059271752</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2376414178855981</v>
+        <v>0.2523982669803928</v>
       </c>
       <c r="M16">
-        <v>0.3704046380943211</v>
+        <v>0.6957578941775964</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.77112204036564</v>
+        <v>3.924931925881538</v>
       </c>
       <c r="C17">
-        <v>0.338442626053677</v>
+        <v>1.188052785303228</v>
       </c>
       <c r="D17">
-        <v>0.1073236398622441</v>
+        <v>0.07300978448029127</v>
       </c>
       <c r="E17">
-        <v>0.0558669995827783</v>
+        <v>0.03939163889376918</v>
       </c>
       <c r="F17">
-        <v>2.512397686734687</v>
+        <v>3.546890017266321</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.822124263937155</v>
+        <v>2.027164187906308</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2359193666987096</v>
+        <v>0.2431464365851213</v>
       </c>
       <c r="M17">
-        <v>0.3635950180075724</v>
+        <v>0.664933327311914</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.74666163515343</v>
+        <v>3.818930229963883</v>
       </c>
       <c r="C18">
-        <v>0.3301000775852572</v>
+        <v>1.155512185106772</v>
       </c>
       <c r="D18">
-        <v>0.1073250167745172</v>
+        <v>0.07284877387670718</v>
       </c>
       <c r="E18">
-        <v>0.05575363013559809</v>
+        <v>0.0390312589917805</v>
       </c>
       <c r="F18">
-        <v>2.49584472770843</v>
+        <v>3.467492648440384</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.814874658575263</v>
+        <v>1.989677952039273</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.234940638555571</v>
+        <v>0.2378846089053468</v>
       </c>
       <c r="M18">
-        <v>0.3596993961436397</v>
+        <v>0.6473561915813733</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.73839693997337</v>
+        <v>3.783179664475028</v>
       </c>
       <c r="C19">
-        <v>0.3272763307396644</v>
+        <v>1.144539561118506</v>
       </c>
       <c r="D19">
-        <v>0.1073259737535679</v>
+        <v>0.07279727298895011</v>
       </c>
       <c r="E19">
-        <v>0.05571512978417115</v>
+        <v>0.03890978972171055</v>
       </c>
       <c r="F19">
-        <v>2.490263102934847</v>
+        <v>3.440788254500319</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.81243462096873</v>
+        <v>1.977085605272663</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2346112741771407</v>
+        <v>0.2361128703864921</v>
       </c>
       <c r="M19">
-        <v>0.3583840231585853</v>
+        <v>0.6414298413430259</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.775657277879759</v>
+        <v>3.944618503895128</v>
       </c>
       <c r="C20">
-        <v>0.3399870753638083</v>
+        <v>1.19409730987735</v>
       </c>
       <c r="D20">
-        <v>0.1073236185544957</v>
+        <v>0.07304104320471794</v>
       </c>
       <c r="E20">
-        <v>0.05588792701033363</v>
+        <v>0.03945860731775941</v>
       </c>
       <c r="F20">
-        <v>2.515472174854665</v>
+        <v>3.561671162254186</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.823472927132272</v>
+        <v>2.034150455383454</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2361014654278364</v>
+        <v>0.2441250453541244</v>
       </c>
       <c r="M20">
-        <v>0.3643177296442204</v>
+        <v>0.6681985997511717</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.902045839092864</v>
+        <v>4.497796835054828</v>
       </c>
       <c r="C21">
-        <v>0.3827588639039732</v>
+        <v>1.364110180949467</v>
       </c>
       <c r="D21">
-        <v>0.1073500938741532</v>
+        <v>0.07408717727805936</v>
       </c>
       <c r="E21">
-        <v>0.0564605383668404</v>
+        <v>0.04134672950740903</v>
       </c>
       <c r="F21">
-        <v>2.601777283543157</v>
+        <v>3.981377673685245</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.861579153598399</v>
+        <v>2.233445823249752</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.241248838566392</v>
+        <v>0.2717886188804073</v>
       </c>
       <c r="M21">
-        <v>0.3845065336347773</v>
+        <v>0.7600522100986211</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.985546452005622</v>
+        <v>4.868690745638787</v>
       </c>
       <c r="C22">
-        <v>0.4107650891097023</v>
+        <v>1.478313130062133</v>
       </c>
       <c r="D22">
-        <v>0.1073933194174685</v>
+        <v>0.07496262176837831</v>
       </c>
       <c r="E22">
-        <v>0.05682891407451773</v>
+        <v>0.0426214362528432</v>
       </c>
       <c r="F22">
-        <v>2.659393261895957</v>
+        <v>4.267271512422695</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.887251037944282</v>
+        <v>2.370128899588579</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2447180242865272</v>
+        <v>0.2904996635304684</v>
       </c>
       <c r="M22">
-        <v>0.3978900228595847</v>
+        <v>0.821738000185249</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.940898085229605</v>
+        <v>4.669788950975658</v>
       </c>
       <c r="C23">
-        <v>0.3958126110863986</v>
+        <v>1.417045120715954</v>
       </c>
       <c r="D23">
-        <v>0.107367858401112</v>
+        <v>0.07447627402557089</v>
       </c>
       <c r="E23">
-        <v>0.05663283616675585</v>
+        <v>0.04193683028336981</v>
       </c>
       <c r="F23">
-        <v>2.628530884024883</v>
+        <v>4.113521245017125</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.87347876468921</v>
+        <v>2.296535246545403</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2428568177431458</v>
+        <v>0.280450160393741</v>
       </c>
       <c r="M23">
-        <v>0.3907296590866807</v>
+        <v>0.7886480760047831</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.773606619659063</v>
+        <v>3.935715708302894</v>
       </c>
       <c r="C24">
-        <v>0.3392888250024271</v>
+        <v>1.191363770507905</v>
       </c>
       <c r="D24">
-        <v>0.1073236192625018</v>
+        <v>0.07302685490163441</v>
       </c>
       <c r="E24">
-        <v>0.05587846796509055</v>
+        <v>0.03942832082600933</v>
       </c>
       <c r="F24">
-        <v>2.514081805330903</v>
+        <v>3.554985366790277</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.822862942176343</v>
+        <v>2.03099014181484</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2360191033939429</v>
+        <v>0.2436824393098647</v>
       </c>
       <c r="M24">
-        <v>0.3639909315497292</v>
+        <v>0.6667219236910356</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.596981479964484</v>
+        <v>3.175852890105773</v>
       </c>
       <c r="C25">
-        <v>0.2785201283110439</v>
+        <v>0.9582615563284662</v>
       </c>
       <c r="D25">
-        <v>0.1073853030541727</v>
+        <v>0.07214873133580824</v>
       </c>
       <c r="E25">
-        <v>0.0550391094491296</v>
+        <v>0.03684974829590537</v>
       </c>
       <c r="F25">
-        <v>2.395739331198484</v>
+        <v>2.993111152555429</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.771509277352607</v>
+        <v>1.76728000666418</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2290924722067729</v>
+        <v>0.2062577417690505</v>
       </c>
       <c r="M25">
-        <v>0.3359545370881989</v>
+        <v>0.5409046021584061</v>
       </c>
       <c r="N25">
         <v>0</v>
